--- a/biology/Histoire de la zoologie et de la botanique/Kilian_Stobæus/Kilian_Stobæus.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Kilian_Stobæus/Kilian_Stobæus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kilian_Stob%C3%A6us</t>
+          <t>Kilian_Stobæus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kilian Stobæus dit l'ancien est un médecin et naturaliste suédois, né à Vinslöv (province de Scanie) le 6 février 1690 et mort le 17 février 1742.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kilian_Stob%C3%A6us</t>
+          <t>Kilian_Stobæus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est dit l'ancien pour le distinguer de son petit-cousin l'obstétricien Kilian Stobæus le jeune (1717-1792).
 Après des études à l'Université de Lund, Kilian Stobæus rejoint la marine militaire suédoise comme médecin assistant entre 1710 et 1713. Il revient ensuite à Lund pour y finir ses études de médecine et y devient docteur en médecine en 1721. Il part ensuite exercer la médecine à Göteborg, en 1724, puis à Malmö, à partir de 1725. L'Université de Lund crée pour lui une chaire de philosophie, d'histoire naturelle et de physique expérimentale qu'il occupe à partir de 1728. Il y obtient ensuite la chaire d'Histoire, en 1732, et en reste le titulaire jusqu'à sa mort, en 1742. Carl von Linné (1707-1778) et Nils Rosén von Rosenstein (1706-1773) feront partie de ses élèves.
